--- a/data/trans_bre/P57_AF_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.024352996096503</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.321034458047989</v>
+        <v>3.321034458047978</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00596933311358049</v>
@@ -649,7 +649,7 @@
         <v>0.05454244384075813</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.06320868450600738</v>
+        <v>0.06320868450600715</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.510190459403908</v>
+        <v>-4.43122980321221</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.500728569958062</v>
+        <v>0.5812441951138132</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9158824950568054</v>
+        <v>-0.4849736764703876</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.595815793282938</v>
+        <v>-1.772910919911039</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.06459826405745739</v>
+        <v>-0.06317832093484792</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02738914672324982</v>
+        <v>0.01021112949591067</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.01181323053020921</v>
+        <v>-0.006023127015126844</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.02852408150758358</v>
+        <v>-0.03378108181094139</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.233879164294952</v>
+        <v>5.815921845020338</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.56125251566429</v>
+        <v>11.58802641908552</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.704474638121907</v>
+        <v>8.836675920956894</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.059084880547829</v>
+        <v>8.453409133007096</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.08133027411506</v>
+        <v>0.09132244122793612</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2126860282820607</v>
+        <v>0.2114755591946505</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1218385487617242</v>
+        <v>0.1241309776129668</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.186503001346648</v>
+        <v>0.1732464372482116</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.654490660221266</v>
+        <v>-2.537386273685778</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.25319400236687</v>
+        <v>1.193617517213419</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.408648039691143</v>
+        <v>-0.2583148359973527</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.151347914454521</v>
+        <v>0.01590581742844161</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0424713019854221</v>
+        <v>-0.04070525799166612</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01956370599602205</v>
+        <v>0.01872388590628127</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.005442592653445977</v>
+        <v>-0.003053317068326916</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.001526200020017073</v>
+        <v>0.0008937348678522951</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.273138033489543</v>
+        <v>6.792431258687823</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.54785094530598</v>
+        <v>10.47426813385096</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.600553456492573</v>
+        <v>7.226418699278862</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.01339523163151</v>
+        <v>8.760142496130735</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1073121182557358</v>
+        <v>0.1183707863400341</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1602982279423147</v>
+        <v>0.1760731680287126</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1066957067260957</v>
+        <v>0.1004137020004408</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1652209083971058</v>
+        <v>0.1590119422208949</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.241670546989715</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.428474280570103</v>
+        <v>-2.428474280570092</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02499723835030785</v>
@@ -849,7 +849,7 @@
         <v>0.0153641444019037</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.04011283221533576</v>
+        <v>-0.04011283221533558</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.830262225850925</v>
+        <v>-4.383774481057895</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.658071757053794</v>
+        <v>-2.762728681319608</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.521116105464556</v>
+        <v>-2.413679835930874</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.582834347743554</v>
+        <v>-7.40990076977468</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.06602530972299976</v>
+        <v>-0.07286103848503893</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.04229878282915386</v>
+        <v>-0.04374843229652152</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.03064180277799678</v>
+        <v>-0.02938250950432369</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1189497781018407</v>
+        <v>-0.1175165910438599</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.250933737638829</v>
+        <v>6.671152425111332</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.884577802857237</v>
+        <v>7.942592365542929</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.252966678400127</v>
+        <v>5.745588786850038</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.673369934786047</v>
+        <v>2.729551450511288</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1337799446956723</v>
+        <v>0.1239773805108002</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.137155939272143</v>
+        <v>0.1423134965764888</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06693187015526633</v>
+        <v>0.07316746240947114</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.04719596553121885</v>
+        <v>0.04784731930921182</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.536008625721927</v>
+        <v>-5.618930994519339</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1135028663296871</v>
+        <v>0.2403909776131395</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.679230939801516</v>
+        <v>-3.148019985302661</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.919344743512697</v>
+        <v>-4.809075461168699</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.08924680918493871</v>
+        <v>-0.09078474730840447</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002996826587508951</v>
+        <v>0.003374809564258049</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05267385743649197</v>
+        <v>-0.04447956631326111</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08374349302581358</v>
+        <v>-0.08208501167245046</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.454108114234982</v>
+        <v>3.026561517835575</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.383016953747719</v>
+        <v>8.365270881318661</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.052219186157999</v>
+        <v>5.138218922048425</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.044337499880781</v>
+        <v>3.640884600014327</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06175900091992169</v>
+        <v>0.05491253565223241</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1315944488208319</v>
+        <v>0.1289197990325821</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07580349031029923</v>
+        <v>0.07603745452809574</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.07678540931983774</v>
+        <v>0.06841705527252524</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.152944067154183</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.19037355368744</v>
+        <v>1.190373553687452</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009009536487437983</v>
@@ -1049,7 +1049,7 @@
         <v>0.0291174109103958</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.02088417788221221</v>
+        <v>0.02088417788221241</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.801775749117506</v>
+        <v>-1.69212090711841</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.696721525532696</v>
+        <v>2.4291691098627</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.02491281680542535</v>
+        <v>-0.009479831619666163</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.181274526882787</v>
+        <v>-0.9476334309292683</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.02916323513818467</v>
+        <v>-0.02732422053942747</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04291097798045796</v>
+        <v>0.03825120173681956</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.0001548344186971378</v>
+        <v>6.619098764923715e-05</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.02015625820913898</v>
+        <v>-0.01646188489909464</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.034710839956372</v>
+        <v>3.179878149986967</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.473677099831819</v>
+        <v>6.993740007941509</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.226915261584177</v>
+        <v>4.10477421349144</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.597057363913399</v>
+        <v>3.87716136475369</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.05092796170733112</v>
+        <v>0.05348114458953988</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1240048970385292</v>
+        <v>0.1149239626453134</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05822483077539935</v>
+        <v>0.05586818248293993</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.0638291762346806</v>
+        <v>0.06993950159073969</v>
       </c>
     </row>
     <row r="19">
